--- a/분석자료/사망자_edge.xlsx
+++ b/분석자료/사망자_edge.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangj\OneDrive\바탕 화면\캡스톤2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangj\OneDrive\바탕 화면\캡스톤2\capstone2\capstone2\분석자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE39719-CCC3-4794-9EBF-DCBDD704DAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF02994-6FE4-4531-90EC-1212AF1E29B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="144" yWindow="528" windowWidth="21852" windowHeight="11556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="4">
   <si>
     <t>Source</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1981"/>
+  <dimension ref="A1:E2311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A2141" workbookViewId="0">
+      <selection activeCell="E1982" sqref="E1982"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -22251,6 +22251,3636 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1982" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1982" s="2">
+        <v>115</v>
+      </c>
+      <c r="B1982" s="2">
+        <v>186</v>
+      </c>
+      <c r="C1982" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1983" s="2">
+        <v>119</v>
+      </c>
+      <c r="B1983" s="2">
+        <v>186</v>
+      </c>
+      <c r="C1983" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1984" s="2">
+        <v>119</v>
+      </c>
+      <c r="B1984" s="2">
+        <v>186</v>
+      </c>
+      <c r="C1984" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1985" s="2">
+        <v>139</v>
+      </c>
+      <c r="B1985" s="2">
+        <v>186</v>
+      </c>
+      <c r="C1985" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1986" s="2">
+        <v>118</v>
+      </c>
+      <c r="B1986" s="2">
+        <v>186</v>
+      </c>
+      <c r="C1986" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1987" s="2">
+        <v>116</v>
+      </c>
+      <c r="B1987" s="2">
+        <v>186</v>
+      </c>
+      <c r="C1987" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1988" s="2">
+        <v>118</v>
+      </c>
+      <c r="B1988" s="2">
+        <v>186</v>
+      </c>
+      <c r="C1988" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1989" s="2">
+        <v>123</v>
+      </c>
+      <c r="B1989" s="2">
+        <v>186</v>
+      </c>
+      <c r="C1989" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1990" s="2">
+        <v>122</v>
+      </c>
+      <c r="B1990" s="2">
+        <v>186</v>
+      </c>
+      <c r="C1990" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1991" s="2">
+        <v>123</v>
+      </c>
+      <c r="B1991" s="2">
+        <v>186</v>
+      </c>
+      <c r="C1991" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1992" s="2">
+        <v>123</v>
+      </c>
+      <c r="B1992" s="2">
+        <v>186</v>
+      </c>
+      <c r="C1992" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1993" s="2">
+        <v>144</v>
+      </c>
+      <c r="B1993" s="2">
+        <v>186</v>
+      </c>
+      <c r="C1993" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1994" s="2">
+        <v>123</v>
+      </c>
+      <c r="B1994" s="2">
+        <v>186</v>
+      </c>
+      <c r="C1994" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1995" s="2">
+        <v>123</v>
+      </c>
+      <c r="B1995" s="2">
+        <v>186</v>
+      </c>
+      <c r="C1995" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1996" s="2">
+        <v>119</v>
+      </c>
+      <c r="B1996" s="2">
+        <v>186</v>
+      </c>
+      <c r="C1996" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1997" s="2">
+        <v>123</v>
+      </c>
+      <c r="B1997" s="2">
+        <v>186</v>
+      </c>
+      <c r="C1997" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1998" s="2">
+        <v>128</v>
+      </c>
+      <c r="B1998" s="2">
+        <v>186</v>
+      </c>
+      <c r="C1998" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1999" s="2">
+        <v>116</v>
+      </c>
+      <c r="B1999" s="2">
+        <v>186</v>
+      </c>
+      <c r="C1999" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2000" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2000" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2000" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2001" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2001" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2001" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2002" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2002" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2002" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2003" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2003" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2003" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2004" s="2">
+        <v>125</v>
+      </c>
+      <c r="B2004" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2004" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2005" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2005" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2005" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2006" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2006" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2006" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2007" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2007" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2007" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2008" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2008" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2008" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2009" s="2">
+        <v>131</v>
+      </c>
+      <c r="B2009" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2009" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2010" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2010" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2010" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2011" s="2">
+        <v>131</v>
+      </c>
+      <c r="B2011" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2011" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2012" s="2">
+        <v>127</v>
+      </c>
+      <c r="B2012" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2012" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2013" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2013" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2013" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2014" s="2">
+        <v>137</v>
+      </c>
+      <c r="B2014" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2014" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2015" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2015" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2015" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2016" s="2">
+        <v>129</v>
+      </c>
+      <c r="B2016" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2016" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2017" s="2">
+        <v>129</v>
+      </c>
+      <c r="B2017" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2017" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2018" s="2">
+        <v>125</v>
+      </c>
+      <c r="B2018" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2018" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2019" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2019" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2019" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2020" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2020" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2020" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2021" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2021" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2021" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2022" s="2">
+        <v>115</v>
+      </c>
+      <c r="B2022" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2022" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2023" s="2">
+        <v>128</v>
+      </c>
+      <c r="B2023" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2023" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2024" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2024" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2024" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2025" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2025" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2025" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2026" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2026" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2026" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2027" s="2">
+        <v>125</v>
+      </c>
+      <c r="B2027" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2027" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2028" s="2">
+        <v>128</v>
+      </c>
+      <c r="B2028" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2028" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2029" s="2">
+        <v>115</v>
+      </c>
+      <c r="B2029" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2029" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2030" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2030" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2030" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2031" s="2">
+        <v>116</v>
+      </c>
+      <c r="B2031" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2031" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2032" s="2">
+        <v>129</v>
+      </c>
+      <c r="B2032" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2032" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2033" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2033" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2033" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2034" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2034" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2034" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2035" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2035" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2035" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2036" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2036" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2036" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2037" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2037" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2037" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2038" s="2">
+        <v>117</v>
+      </c>
+      <c r="B2038" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2038" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2039" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2039" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2039" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2040" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2040" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2040" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2041" s="2">
+        <v>128</v>
+      </c>
+      <c r="B2041" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2041" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2042" s="2">
+        <v>139</v>
+      </c>
+      <c r="B2042" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2042" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2043" s="2">
+        <v>139</v>
+      </c>
+      <c r="B2043" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2043" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2044" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2044" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2044" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2045" s="2">
+        <v>117</v>
+      </c>
+      <c r="B2045" s="2">
+        <v>186</v>
+      </c>
+      <c r="C2045" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2046" s="2">
+        <v>116</v>
+      </c>
+      <c r="B2046" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2046" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2047" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2047" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2047" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2048" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2048" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2048" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2049" s="2">
+        <v>115</v>
+      </c>
+      <c r="B2049" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2049" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2050" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2050" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2050" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2051" s="2">
+        <v>121</v>
+      </c>
+      <c r="B2051" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2051" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2052" s="2">
+        <v>116</v>
+      </c>
+      <c r="B2052" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2052" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2053" s="2">
+        <v>125</v>
+      </c>
+      <c r="B2053" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2053" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2054" s="2">
+        <v>132</v>
+      </c>
+      <c r="B2054" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2054" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2055" s="2">
+        <v>117</v>
+      </c>
+      <c r="B2055" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2055" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2056" s="2">
+        <v>125</v>
+      </c>
+      <c r="B2056" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2056" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2057" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2057" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2057" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2058" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2058" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2058" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2059" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2059" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2059" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2060" s="2">
+        <v>132</v>
+      </c>
+      <c r="B2060" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2060" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2061" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2061" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2061" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2062" s="2">
+        <v>114</v>
+      </c>
+      <c r="B2062" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2062" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2063" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2063" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2063" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2064" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2064" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2064" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2065" s="2">
+        <v>132</v>
+      </c>
+      <c r="B2065" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2065" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2066" s="2">
+        <v>114</v>
+      </c>
+      <c r="B2066" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2066" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2067" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2067" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2067" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2068" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2068" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2068" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2069" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2069" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2069" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2070" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2070" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2070" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2071" s="2">
+        <v>125</v>
+      </c>
+      <c r="B2071" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2071" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2072" s="2">
+        <v>122</v>
+      </c>
+      <c r="B2072" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2072" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2073" s="2">
+        <v>116</v>
+      </c>
+      <c r="B2073" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2073" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2074" s="2">
+        <v>120</v>
+      </c>
+      <c r="B2074" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2074" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2075" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2075" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2075" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2076" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2076" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2076" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2077" s="2">
+        <v>134</v>
+      </c>
+      <c r="B2077" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2077" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2078" s="2">
+        <v>116</v>
+      </c>
+      <c r="B2078" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2078" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2079" s="2">
+        <v>134</v>
+      </c>
+      <c r="B2079" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2079" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2080" s="2">
+        <v>139</v>
+      </c>
+      <c r="B2080" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2080" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2081" s="2">
+        <v>125</v>
+      </c>
+      <c r="B2081" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2081" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2082" s="2">
+        <v>121</v>
+      </c>
+      <c r="B2082" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2082" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2083" s="2">
+        <v>120</v>
+      </c>
+      <c r="B2083" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2083" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2084" s="2">
+        <v>120</v>
+      </c>
+      <c r="B2084" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2084" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2085" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2085" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2085" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2086" s="2">
+        <v>126</v>
+      </c>
+      <c r="B2086" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2086" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2087" s="2">
+        <v>128</v>
+      </c>
+      <c r="B2087" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2087" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2088" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2088" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2088" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2089" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2089" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2089" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2090" s="2">
+        <v>116</v>
+      </c>
+      <c r="B2090" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2090" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2091" s="2">
+        <v>117</v>
+      </c>
+      <c r="B2091" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2091" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2092" s="2">
+        <v>116</v>
+      </c>
+      <c r="B2092" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2092" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2093" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2093" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2093" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2094" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2094" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2094" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2095" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2095" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2095" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2096" s="2">
+        <v>115</v>
+      </c>
+      <c r="B2096" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2096" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2097" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2097" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2097" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2098" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2098" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2098" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2099" s="2">
+        <v>131</v>
+      </c>
+      <c r="B2099" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2099" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2100" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2100" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2101" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2101" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2102" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2102" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2103" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2103" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2104" s="2">
+        <v>131</v>
+      </c>
+      <c r="B2104" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2105" s="2">
+        <v>135</v>
+      </c>
+      <c r="B2105" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2106" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2106" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2107" s="2">
+        <v>124</v>
+      </c>
+      <c r="B2107" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2108" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2108" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2109" s="2">
+        <v>114</v>
+      </c>
+      <c r="B2109" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2110" s="2">
+        <v>116</v>
+      </c>
+      <c r="B2110" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2111" s="2">
+        <v>120</v>
+      </c>
+      <c r="B2111" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2112" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2112" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2113" s="2">
+        <v>130</v>
+      </c>
+      <c r="B2113" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2114" s="2">
+        <v>116</v>
+      </c>
+      <c r="B2114" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2115" s="2">
+        <v>141</v>
+      </c>
+      <c r="B2115" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2116" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2116" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2117" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2117" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2118" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B2118" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2119" s="2">
+        <v>134</v>
+      </c>
+      <c r="B2119" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2120" s="2">
+        <v>141</v>
+      </c>
+      <c r="B2120" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2121" s="2">
+        <v>143</v>
+      </c>
+      <c r="B2121" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2122" s="2">
+        <v>136</v>
+      </c>
+      <c r="B2122" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2123" s="2">
+        <v>114</v>
+      </c>
+      <c r="B2123" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2124" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2124" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2125" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2125" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2126" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2126" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2127" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2127" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2128" s="2">
+        <v>134</v>
+      </c>
+      <c r="B2128" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2129" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2129" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2130" s="2">
+        <v>130</v>
+      </c>
+      <c r="B2130" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2131" s="2">
+        <v>117</v>
+      </c>
+      <c r="B2131" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2132" s="2">
+        <v>117</v>
+      </c>
+      <c r="B2132" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2133" s="2">
+        <v>131</v>
+      </c>
+      <c r="B2133" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2134" s="2">
+        <v>126</v>
+      </c>
+      <c r="B2134" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2135" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2135" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2136" s="2">
+        <v>122</v>
+      </c>
+      <c r="B2136" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2136" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2137" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2137" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B2138" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2139" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2139" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2140" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B2140" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2141" s="2">
+        <v>138</v>
+      </c>
+      <c r="B2141" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2142" s="2">
+        <v>128</v>
+      </c>
+      <c r="B2142" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2143" s="2">
+        <v>146</v>
+      </c>
+      <c r="B2143" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2144" s="2">
+        <v>116</v>
+      </c>
+      <c r="B2144" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2145" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2145" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2146" s="2">
+        <v>117</v>
+      </c>
+      <c r="B2146" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2147" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2147" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2148" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2148" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2149" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2149" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2150" s="2">
+        <v>140</v>
+      </c>
+      <c r="B2150" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2151" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2151" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2152" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2152" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2153" s="2">
+        <v>114</v>
+      </c>
+      <c r="B2153" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2154" s="2">
+        <v>124</v>
+      </c>
+      <c r="B2154" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2155" s="2">
+        <v>122</v>
+      </c>
+      <c r="B2155" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2156" s="2">
+        <v>125</v>
+      </c>
+      <c r="B2156" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2157" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2157" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2158" s="2">
+        <v>117</v>
+      </c>
+      <c r="B2158" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2159" s="2">
+        <v>120</v>
+      </c>
+      <c r="B2159" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2160" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2160" s="2">
+        <v>187</v>
+      </c>
+      <c r="C2160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2161" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2161" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2162" s="2">
+        <v>117</v>
+      </c>
+      <c r="B2162" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2163" s="2">
+        <v>128</v>
+      </c>
+      <c r="B2163" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2164" s="2">
+        <v>116</v>
+      </c>
+      <c r="B2164" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2165" s="2">
+        <v>116</v>
+      </c>
+      <c r="B2165" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2166" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2166" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2167" s="2">
+        <v>126</v>
+      </c>
+      <c r="B2167" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2168" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2168" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2168" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2169" s="2">
+        <v>120</v>
+      </c>
+      <c r="B2169" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2170" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2170" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2171" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2171" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2172" s="2">
+        <v>122</v>
+      </c>
+      <c r="B2172" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2173" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2173" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2174" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2174" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2175" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2175" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2176" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2176" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2177" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2177" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2177" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2178" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2178" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2179" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2179" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2180" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2180" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2181" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2181" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2182" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2182" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2183" s="2">
+        <v>115</v>
+      </c>
+      <c r="B2183" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2183" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2184" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2184" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2184" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2185" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2185" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2185" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2186" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2186" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2186" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2187" s="2">
+        <v>117</v>
+      </c>
+      <c r="B2187" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2187" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2188" s="2">
+        <v>115</v>
+      </c>
+      <c r="B2188" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2189" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2189" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2190" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2190" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2191" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2191" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2192" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2192" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2192" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2193" s="2">
+        <v>116</v>
+      </c>
+      <c r="B2193" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2193" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2194" s="2">
+        <v>137</v>
+      </c>
+      <c r="B2194" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2194" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2195" s="2">
+        <v>115</v>
+      </c>
+      <c r="B2195" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2195" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2196" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2196" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2196" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2197" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2197" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2197" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2198" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2198" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2198" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2199" s="2">
+        <v>115</v>
+      </c>
+      <c r="B2199" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2199" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2200" s="2">
+        <v>120</v>
+      </c>
+      <c r="B2200" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2200" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2201" s="2">
+        <v>134</v>
+      </c>
+      <c r="B2201" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2201" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2202" s="2">
+        <v>116</v>
+      </c>
+      <c r="B2202" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2202" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2203" s="2">
+        <v>129</v>
+      </c>
+      <c r="B2203" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2203" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2204" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2204" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2204" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2205" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2205" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2205" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2206" s="2">
+        <v>116</v>
+      </c>
+      <c r="B2206" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2206" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2207" s="2">
+        <v>127</v>
+      </c>
+      <c r="B2207" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2207" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2208" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2208" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2208" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2209" s="2">
+        <v>132</v>
+      </c>
+      <c r="B2209" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2209" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2210" s="2">
+        <v>122</v>
+      </c>
+      <c r="B2210" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2210" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2211" s="2">
+        <v>115</v>
+      </c>
+      <c r="B2211" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2211" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2212" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2212" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2212" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2213" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2213" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2213" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2214" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2214" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2214" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2215" s="2">
+        <v>127</v>
+      </c>
+      <c r="B2215" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2215" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2216" s="2">
+        <v>116</v>
+      </c>
+      <c r="B2216" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2217" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2217" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2217" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2218" s="2">
+        <v>128</v>
+      </c>
+      <c r="B2218" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2218" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2219" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2219" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2219" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2220" s="2">
+        <v>116</v>
+      </c>
+      <c r="B2220" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2220" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2221" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2221" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2221" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2222" s="2">
+        <v>114</v>
+      </c>
+      <c r="B2222" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2222" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2223" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2223" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2224" s="2">
+        <v>122</v>
+      </c>
+      <c r="B2224" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2224" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2225" s="2">
+        <v>117</v>
+      </c>
+      <c r="B2225" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2225" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2226" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2226" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2226" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2227" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2227" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2227" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2228" s="2">
+        <v>126</v>
+      </c>
+      <c r="B2228" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2228" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2229" s="2">
+        <v>129</v>
+      </c>
+      <c r="B2229" s="2">
+        <v>188</v>
+      </c>
+      <c r="C2229" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2230" s="2">
+        <v>146</v>
+      </c>
+      <c r="B2230" s="2">
+        <v>189</v>
+      </c>
+      <c r="C2230" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2231" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2231" s="2">
+        <v>189</v>
+      </c>
+      <c r="C2231" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2232" s="2">
+        <v>121</v>
+      </c>
+      <c r="B2232" s="2">
+        <v>189</v>
+      </c>
+      <c r="C2232" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2233" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2233" s="2">
+        <v>189</v>
+      </c>
+      <c r="C2233" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2234" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2234" s="2">
+        <v>189</v>
+      </c>
+      <c r="C2234" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2235" s="2">
+        <v>132</v>
+      </c>
+      <c r="B2235" s="2">
+        <v>189</v>
+      </c>
+      <c r="C2235" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2236" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2236" s="2">
+        <v>189</v>
+      </c>
+      <c r="C2236" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2237" s="2">
+        <v>127</v>
+      </c>
+      <c r="B2237" s="2">
+        <v>189</v>
+      </c>
+      <c r="C2237" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2238" s="2">
+        <v>116</v>
+      </c>
+      <c r="B2238" s="2">
+        <v>189</v>
+      </c>
+      <c r="C2238" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2239" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2239" s="2">
+        <v>189</v>
+      </c>
+      <c r="C2239" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2240" s="2">
+        <v>116</v>
+      </c>
+      <c r="B2240" s="2">
+        <v>189</v>
+      </c>
+      <c r="C2240" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2241" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2241" s="2">
+        <v>189</v>
+      </c>
+      <c r="C2241" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2242" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2242" s="2">
+        <v>189</v>
+      </c>
+      <c r="C2242" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2243" s="2">
+        <v>128</v>
+      </c>
+      <c r="B2243" s="2">
+        <v>189</v>
+      </c>
+      <c r="C2243" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2244" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2244" s="2">
+        <v>189</v>
+      </c>
+      <c r="C2244" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2245" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2245" s="2">
+        <v>189</v>
+      </c>
+      <c r="C2245" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2246" s="2">
+        <v>129</v>
+      </c>
+      <c r="B2246" s="2">
+        <v>189</v>
+      </c>
+      <c r="C2246" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2247" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2247" s="2">
+        <v>189</v>
+      </c>
+      <c r="C2247" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2248" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2248" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2248" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2249" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2249" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2249" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2250" s="2">
+        <v>126</v>
+      </c>
+      <c r="B2250" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2250" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2251" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2251" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2251" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2252" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2252" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2252" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2253" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2253" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2253" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2254" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2254" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2254" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2255" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2255" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2255" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2256" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2256" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2257" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2257" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2257" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2258" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2258" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2258" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2259" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2259" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2259" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2260" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2260" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2260" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2261" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2261" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2261" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2262" s="2">
+        <v>134</v>
+      </c>
+      <c r="B2262" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2262" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2263" s="2">
+        <v>125</v>
+      </c>
+      <c r="B2263" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2263" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2264" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2264" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2264" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2265" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2265" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2265" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2266" s="2">
+        <v>125</v>
+      </c>
+      <c r="B2266" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2266" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2267" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2267" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2267" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2268" s="2">
+        <v>128</v>
+      </c>
+      <c r="B2268" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2268" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2269" s="2">
+        <v>130</v>
+      </c>
+      <c r="B2269" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2269" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2270" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2270" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2270" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2271" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2271" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2271" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2272" s="2">
+        <v>125</v>
+      </c>
+      <c r="B2272" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2272" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2273" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2273" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2273" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2274" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2274" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2274" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2275" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2275" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2275" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2276" s="2">
+        <v>117</v>
+      </c>
+      <c r="B2276" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2276" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2277" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B2277" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2277" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2278" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2278" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2278" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2279" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2279" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2279" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2280" s="2">
+        <v>126</v>
+      </c>
+      <c r="B2280" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2280" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2281" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2281" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2281" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2282" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2282" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2282" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2283" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2283" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2283" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2284" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2284" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2284" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2285" s="2">
+        <v>128</v>
+      </c>
+      <c r="B2285" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2285" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2286" s="2">
+        <v>115</v>
+      </c>
+      <c r="B2286" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2286" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2287" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2287" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2287" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2288" s="2">
+        <v>125</v>
+      </c>
+      <c r="B2288" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2288" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2289" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2289" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2289" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2290" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2290" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2290" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2291" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2291" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2291" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2292" s="2">
+        <v>127</v>
+      </c>
+      <c r="B2292" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2292" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2293" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2293" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2293" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2294" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2294" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2294" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2295" s="2">
+        <v>115</v>
+      </c>
+      <c r="B2295" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2295" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2296" s="2">
+        <v>128</v>
+      </c>
+      <c r="B2296" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2296" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2297" s="2">
+        <v>129</v>
+      </c>
+      <c r="B2297" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2297" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2298" s="2">
+        <v>119</v>
+      </c>
+      <c r="B2298" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2298" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2299" s="2">
+        <v>129</v>
+      </c>
+      <c r="B2299" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2299" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2300" s="2">
+        <v>115</v>
+      </c>
+      <c r="B2300" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2300" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2301" s="2">
+        <v>146</v>
+      </c>
+      <c r="B2301" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2301" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2302" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2302" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2302" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2303" s="2">
+        <v>129</v>
+      </c>
+      <c r="B2303" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2303" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2304" s="2">
+        <v>133</v>
+      </c>
+      <c r="B2304" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2304" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2305" s="2">
+        <v>144</v>
+      </c>
+      <c r="B2305" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2305" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2306" s="2">
+        <v>144</v>
+      </c>
+      <c r="B2306" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2306" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2307" s="2">
+        <v>125</v>
+      </c>
+      <c r="B2307" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2307" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2308" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2308" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2308" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2309" s="2">
+        <v>146</v>
+      </c>
+      <c r="B2309" s="2">
+        <v>191</v>
+      </c>
+      <c r="C2309" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2310" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2310" s="2">
+        <v>192</v>
+      </c>
+      <c r="C2310" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2311" s="2">
+        <v>118</v>
+      </c>
+      <c r="B2311" s="2">
+        <v>192</v>
+      </c>
+      <c r="C2311" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
